--- a/PABMI/0 PABI/ROLES/Casos de Prueba Roles Inmuebles (Autoguardado).xlsx
+++ b/PABMI/0 PABI/ROLES/Casos de Prueba Roles Inmuebles (Autoguardado).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Historias Usuario" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="Roles modificaciones " sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -518,7 +517,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="169">
   <si>
     <t>ID</t>
   </si>
@@ -1061,6 +1060,9 @@
   </si>
   <si>
     <t>o</t>
+  </si>
+  <si>
+    <t>aurora.ramos</t>
   </si>
 </sst>
 </file>
@@ -1377,18 +1379,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1403,6 +1393,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4353,27 +4355,27 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="33">
+      <c r="A4" s="29">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -4387,7 +4389,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -4399,7 +4401,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="34"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -4417,27 +4419,27 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="29"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
+      <c r="A10" s="29">
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -4451,7 +4453,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="5" t="s">
         <v>1</v>
       </c>
@@ -4463,7 +4465,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
@@ -4487,27 +4489,27 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="29"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="33">
+      <c r="A17" s="29">
         <v>3</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -4521,7 +4523,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="5" t="s">
         <v>1</v>
       </c>
@@ -4533,7 +4535,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="34"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
@@ -4546,27 +4548,27 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="29"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="33">
+      <c r="A23" s="29">
         <v>3</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -4580,7 +4582,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="5" t="s">
         <v>1</v>
       </c>
@@ -4592,7 +4594,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="34"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="6" t="s">
         <v>2</v>
       </c>
@@ -4605,27 +4607,27 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="29"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="33">
+      <c r="A29" s="29">
         <v>3</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -4639,7 +4641,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="5" t="s">
         <v>1</v>
       </c>
@@ -4651,7 +4653,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="34"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="6" t="s">
         <v>2</v>
       </c>
@@ -4664,27 +4666,27 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="37"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="33"/>
     </row>
     <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="29"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="33">
+      <c r="A35" s="29">
         <v>3</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -4698,7 +4700,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="33"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="5" t="s">
         <v>1</v>
       </c>
@@ -4710,7 +4712,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="34"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="6" t="s">
         <v>2</v>
       </c>
@@ -4723,27 +4725,27 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="37"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="33"/>
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="29"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="33">
+      <c r="A41" s="29">
         <v>3</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -4757,7 +4759,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="33"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="5" t="s">
         <v>1</v>
       </c>
@@ -4769,7 +4771,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="34"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="6" t="s">
         <v>2</v>
       </c>
@@ -4782,27 +4784,27 @@
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="37"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="33"/>
     </row>
     <row r="46" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="29"/>
+      <c r="C46" s="34"/>
       <c r="D46" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="33">
+      <c r="A47" s="29">
         <v>3</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -4816,7 +4818,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="33"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="5" t="s">
         <v>1</v>
       </c>
@@ -4828,7 +4830,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="34"/>
+      <c r="A49" s="30"/>
       <c r="B49" s="6" t="s">
         <v>2</v>
       </c>
@@ -4841,12 +4843,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A10:A12"/>
@@ -4860,11 +4861,12 @@
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967295" r:id="rId1"/>
@@ -5153,7 +5155,7 @@
   <dimension ref="B7:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5220,7 +5222,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>87</v>
@@ -5416,7 +5418,7 @@
   <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView topLeftCell="B4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6118,8 +6120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H16"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6440,7 +6442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
@@ -6629,7 +6631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
